--- a/01. DISTRIBUCION SPRINTS.xlsx
+++ b/01. DISTRIBUCION SPRINTS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>SPRINT NRO 1.</t>
   </si>
@@ -93,6 +93,24 @@
   </si>
   <si>
     <t>Código de los Frontend</t>
+  </si>
+  <si>
+    <t>Desarrollo Modulo Formador (Insetar-Editar-Eliminar-Consultar-Listar) - con almacenamiento en la BD</t>
+  </si>
+  <si>
+    <t>Desarrollo Modulo Tutor (Insetar-Editar-Eliminar-Consultar-Listar)  - con almacenamiento en la BD</t>
+  </si>
+  <si>
+    <t>Desarrollo Modulo Beneficiario (Insetar-Editar-Eliminar-Consultar-Listar)  - con almacenamiento en la BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vDesarrollo Modulo Formador (Insetar-Editar-Eliminar-Consultar-Listar)</t>
+  </si>
+  <si>
+    <t>Desarrollo Modulo Equpipos (Insetar-Editar-Eliminar-Consultar-Listar)  - con almacenamiento en la BD</t>
+  </si>
+  <si>
+    <t>Desarrollo Modulo Proyectos (Insetar-Editar-Eliminar-Consultar-Listar) - con almacenamiento en la BD</t>
   </si>
 </sst>
 </file>
@@ -122,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,6 +257,16 @@
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -798,45 +832,135 @@
       <c r="F17" s="19"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
